--- a/NformTester/NformTester/keywordscripts/TST970_EditDeleteNavigationView.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST970_EditDeleteNavigationView.xlsx
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8060" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8060" uniqueCount="877">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3633,9 +3633,6 @@
     <t>"testuser"</t>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>"testpoweruser"</t>
   </si>
   <si>
@@ -3719,14 +3716,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"10.146.80.10"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ABC GXT UPS"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3763,9 +3752,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"10.146.80.20"</t>
-  </si>
-  <si>
     <t>"ABC GXT UPS 222"</t>
   </si>
   <si>
@@ -3912,6 +3898,16 @@
   <si>
     <t>Equal</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
+  </si>
+  <si>
+    <t>$GXT_1$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_0_NAME$</t>
   </si>
 </sst>
 </file>
@@ -4880,8 +4876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O251"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="D232" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I154" sqref="I154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4951,7 +4947,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -4970,7 +4966,7 @@
         <v>754</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -5011,7 +5007,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -5036,7 +5032,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>19</v>
@@ -5067,7 +5063,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>19</v>
@@ -5098,7 +5094,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>235</v>
@@ -5127,7 +5123,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>248</v>
@@ -5160,7 +5156,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>248</v>
@@ -5172,7 +5168,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="4"/>
@@ -5189,7 +5185,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>248</v>
@@ -5201,7 +5197,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -5220,7 +5216,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>248</v>
@@ -5232,7 +5228,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -5263,7 +5259,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -5282,7 +5278,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>248</v>
@@ -5294,7 +5290,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="4"/>
@@ -5313,7 +5309,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>248</v>
@@ -5325,7 +5321,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="4"/>
@@ -5344,7 +5340,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>248</v>
@@ -5353,10 +5349,10 @@
         <v>255</v>
       </c>
       <c r="G15" s="12" t="s">
+        <v>809</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>810</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>811</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -5375,7 +5371,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>248</v>
@@ -5384,10 +5380,10 @@
         <v>167</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -5406,7 +5402,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>248</v>
@@ -5418,7 +5414,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -5437,7 +5433,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>248</v>
@@ -5449,13 +5445,13 @@
         <v>7</v>
       </c>
       <c r="H18" s="12" t="s">
+        <v>813</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="J18" s="12" t="s">
         <v>814</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>875</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>815</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -5474,7 +5470,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>248</v>
@@ -5486,7 +5482,7 @@
         <v>13</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="4"/>
@@ -5505,7 +5501,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>248</v>
@@ -5517,7 +5513,7 @@
         <v>13</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -5536,7 +5532,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>248</v>
@@ -5561,7 +5557,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>248</v>
@@ -5586,7 +5582,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>248</v>
@@ -5611,7 +5607,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>248</v>
@@ -5636,7 +5632,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>248</v>
@@ -5661,7 +5657,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>248</v>
@@ -5711,7 +5707,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>248</v>
@@ -5759,7 +5755,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>235</v>
@@ -5784,7 +5780,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>248</v>
@@ -5796,7 +5792,7 @@
         <v>4</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -5811,7 +5807,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>248</v>
@@ -5823,7 +5819,7 @@
         <v>4</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="4"/>
@@ -5838,7 +5834,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>248</v>
@@ -5850,7 +5846,7 @@
         <v>4</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -5865,7 +5861,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>248</v>
@@ -5877,7 +5873,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -5904,7 +5900,7 @@
         <v>4</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -5919,7 +5915,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>248</v>
@@ -5931,7 +5927,7 @@
         <v>4</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I36" s="12"/>
       <c r="J36" s="4"/>
@@ -5946,7 +5942,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>248</v>
@@ -5958,7 +5954,7 @@
         <v>4</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I37" s="12"/>
       <c r="J37" s="4"/>
@@ -5973,7 +5969,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>248</v>
@@ -5982,10 +5978,10 @@
         <v>255</v>
       </c>
       <c r="G38" s="12" t="s">
+        <v>809</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>810</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>811</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -6000,7 +5996,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>248</v>
@@ -6009,10 +6005,10 @@
         <v>167</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -6027,7 +6023,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>248</v>
@@ -6039,7 +6035,7 @@
         <v>4</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -6054,7 +6050,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>248</v>
@@ -6066,13 +6062,13 @@
         <v>7</v>
       </c>
       <c r="H41" s="12" t="s">
+        <v>813</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="J41" s="12" t="s">
         <v>814</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>875</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>815</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -6085,7 +6081,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>248</v>
@@ -6097,7 +6093,7 @@
         <v>13</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I42" s="16"/>
       <c r="J42" s="4"/>
@@ -6111,7 +6107,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>248</v>
@@ -6123,7 +6119,7 @@
         <v>13</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -6137,7 +6133,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>248</v>
@@ -6161,7 +6157,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>248</v>
@@ -6185,7 +6181,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>248</v>
@@ -6209,7 +6205,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>248</v>
@@ -6233,7 +6229,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>248</v>
@@ -6257,7 +6253,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>248</v>
@@ -6305,7 +6301,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>248</v>
@@ -6367,7 +6363,7 @@
         <v>794</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I53" s="12"/>
       <c r="J53" s="4"/>
@@ -6405,7 +6401,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="4"/>
@@ -6423,7 +6419,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>19</v>
@@ -6447,7 +6443,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>19</v>
@@ -6471,10 +6467,10 @@
         <v>57</v>
       </c>
       <c r="D58" s="14" t="s">
+        <v>819</v>
+      </c>
+      <c r="E58" s="12" t="s">
         <v>820</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>821</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>177</v>
@@ -6495,10 +6491,10 @@
         <v>58</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>160</v>
@@ -6519,10 +6515,10 @@
         <v>59</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>378</v>
@@ -6531,7 +6527,7 @@
         <v>4</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>823</v>
+        <v>874</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -6545,10 +6541,10 @@
         <v>60</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>600</v>
@@ -6569,10 +6565,10 @@
         <v>61</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>160</v>
@@ -6615,10 +6611,10 @@
         <v>63</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>250</v>
@@ -6627,7 +6623,7 @@
         <v>4</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>824</v>
+        <v>876</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
@@ -6641,10 +6637,10 @@
         <v>64</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>249</v>
@@ -6653,7 +6649,7 @@
         <v>4</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
@@ -6667,10 +6663,10 @@
         <v>65</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>515</v>
@@ -6679,7 +6675,7 @@
         <v>13</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
@@ -6693,10 +6689,10 @@
         <v>66</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>601</v>
@@ -6705,7 +6701,7 @@
         <v>13</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -6719,10 +6715,10 @@
         <v>67</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>602</v>
@@ -6743,10 +6739,10 @@
         <v>68</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>522</v>
@@ -6767,10 +6763,10 @@
         <v>69</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>250</v>
@@ -6779,7 +6775,7 @@
         <v>4</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>824</v>
+        <v>876</v>
       </c>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
@@ -6793,10 +6789,10 @@
         <v>70</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>527</v>
@@ -6817,10 +6813,10 @@
         <v>71</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>525</v>
@@ -6841,10 +6837,10 @@
         <v>72</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>526</v>
@@ -6865,13 +6861,13 @@
         <v>73</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>2</v>
@@ -6889,10 +6885,10 @@
         <v>74</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>357</v>
@@ -6901,7 +6897,7 @@
         <v>4</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -6915,10 +6911,10 @@
         <v>75</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>476</v>
@@ -6927,7 +6923,7 @@
         <v>4</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
@@ -6941,10 +6937,10 @@
         <v>76</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>519</v>
@@ -6965,10 +6961,10 @@
         <v>77</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>537</v>
@@ -6989,10 +6985,10 @@
         <v>78</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>538</v>
@@ -7001,7 +6997,7 @@
         <v>4</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
@@ -7015,10 +7011,10 @@
         <v>79</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>539</v>
@@ -7039,10 +7035,10 @@
         <v>80</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>540</v>
@@ -7051,7 +7047,7 @@
         <v>4</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
@@ -7065,10 +7061,10 @@
         <v>81</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>17</v>
@@ -7089,10 +7085,10 @@
         <v>82</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>596</v>
@@ -7135,10 +7131,10 @@
         <v>84</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="F85" s="12" t="s">
         <v>17</v>
@@ -7181,10 +7177,10 @@
         <v>86</v>
       </c>
       <c r="D87" s="14" t="s">
+        <v>819</v>
+      </c>
+      <c r="E87" s="12" t="s">
         <v>820</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>821</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>177</v>
@@ -7205,10 +7201,10 @@
         <v>87</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>160</v>
@@ -7229,10 +7225,10 @@
         <v>88</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>378</v>
@@ -7241,7 +7237,7 @@
         <v>4</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>834</v>
+        <v>875</v>
       </c>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
@@ -7255,10 +7251,10 @@
         <v>89</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>600</v>
@@ -7279,10 +7275,10 @@
         <v>90</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>160</v>
@@ -7325,10 +7321,10 @@
         <v>92</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>250</v>
@@ -7337,7 +7333,7 @@
         <v>4</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
@@ -7351,10 +7347,10 @@
         <v>93</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>249</v>
@@ -7363,7 +7359,7 @@
         <v>4</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
@@ -7377,10 +7373,10 @@
         <v>94</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>515</v>
@@ -7389,7 +7385,7 @@
         <v>13</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
@@ -7403,10 +7399,10 @@
         <v>95</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>601</v>
@@ -7415,7 +7411,7 @@
         <v>13</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
@@ -7429,10 +7425,10 @@
         <v>96</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>602</v>
@@ -7453,10 +7449,10 @@
         <v>97</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>522</v>
@@ -7477,10 +7473,10 @@
         <v>98</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>250</v>
@@ -7489,7 +7485,7 @@
         <v>4</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
@@ -7503,10 +7499,10 @@
         <v>99</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>527</v>
@@ -7527,10 +7523,10 @@
         <v>100</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>525</v>
@@ -7551,10 +7547,10 @@
         <v>101</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>526</v>
@@ -7575,13 +7571,13 @@
         <v>102</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>2</v>
@@ -7599,10 +7595,10 @@
         <v>103</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>357</v>
@@ -7611,7 +7607,7 @@
         <v>4</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
@@ -7625,10 +7621,10 @@
         <v>104</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>476</v>
@@ -7637,7 +7633,7 @@
         <v>4</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
@@ -7651,10 +7647,10 @@
         <v>105</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>519</v>
@@ -7675,10 +7671,10 @@
         <v>106</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>537</v>
@@ -7699,10 +7695,10 @@
         <v>107</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>538</v>
@@ -7711,7 +7707,7 @@
         <v>4</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
@@ -7725,10 +7721,10 @@
         <v>108</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>539</v>
@@ -7749,10 +7745,10 @@
         <v>109</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>540</v>
@@ -7761,7 +7757,7 @@
         <v>4</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
@@ -7775,10 +7771,10 @@
         <v>110</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>17</v>
@@ -7799,10 +7795,10 @@
         <v>111</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>596</v>
@@ -7845,10 +7841,10 @@
         <v>113</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="F114" s="12" t="s">
         <v>17</v>
@@ -7869,10 +7865,10 @@
         <v>114</v>
       </c>
       <c r="D115" s="14" t="s">
+        <v>819</v>
+      </c>
+      <c r="E115" s="12" t="s">
         <v>820</v>
-      </c>
-      <c r="E115" s="12" t="s">
-        <v>821</v>
       </c>
       <c r="F115" s="12" t="s">
         <v>573</v>
@@ -7881,7 +7877,7 @@
         <v>794</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
@@ -7895,10 +7891,10 @@
         <v>115</v>
       </c>
       <c r="D116" s="14" t="s">
+        <v>819</v>
+      </c>
+      <c r="E116" s="12" t="s">
         <v>820</v>
-      </c>
-      <c r="E116" s="12" t="s">
-        <v>821</v>
       </c>
       <c r="F116" s="12" t="s">
         <v>573</v>
@@ -7907,7 +7903,7 @@
         <v>794</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>800</v>
+        <v>876</v>
       </c>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
@@ -7921,13 +7917,13 @@
         <v>116</v>
       </c>
       <c r="D117" s="14" t="s">
+        <v>819</v>
+      </c>
+      <c r="E117" s="12" t="s">
         <v>820</v>
       </c>
-      <c r="E117" s="12" t="s">
-        <v>821</v>
-      </c>
       <c r="F117" s="12" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="G117" s="12" t="s">
         <v>2</v>
@@ -7945,7 +7941,7 @@
         <v>117</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
@@ -8047,7 +8043,7 @@
         <v>4</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
@@ -8073,7 +8069,7 @@
         <v>4</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
@@ -8099,7 +8095,7 @@
         <v>56</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>824</v>
+        <v>876</v>
       </c>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
@@ -8219,7 +8215,7 @@
         <v>4</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
@@ -8245,7 +8241,7 @@
         <v>4</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
@@ -8341,7 +8337,7 @@
         <v>4</v>
       </c>
       <c r="H134" s="12" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
@@ -8367,7 +8363,7 @@
         <v>4</v>
       </c>
       <c r="H135" s="12" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
@@ -8429,7 +8425,7 @@
         <v>137</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
@@ -8557,7 +8553,7 @@
         <v>13</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
@@ -8641,7 +8637,7 @@
         <v>146</v>
       </c>
       <c r="D147" s="13" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
@@ -8659,7 +8655,7 @@
         <v>147</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>19</v>
@@ -8683,7 +8679,7 @@
         <v>148</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>19</v>
@@ -8707,7 +8703,7 @@
         <v>149</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E150" s="12" t="s">
         <v>616</v>
@@ -8719,7 +8715,7 @@
         <v>56</v>
       </c>
       <c r="H150" s="12" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
@@ -8733,7 +8729,7 @@
         <v>150</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E151" s="12" t="s">
         <v>616</v>
@@ -8757,7 +8753,7 @@
         <v>151</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E152" s="12" t="s">
         <v>619</v>
@@ -8769,7 +8765,7 @@
         <v>4</v>
       </c>
       <c r="H152" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="I152" s="12"/>
       <c r="J152" s="4"/>
@@ -8783,7 +8779,7 @@
         <v>152</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E153" s="12" t="s">
         <v>619</v>
@@ -8795,7 +8791,7 @@
         <v>4</v>
       </c>
       <c r="H153" s="12" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
@@ -8809,7 +8805,7 @@
         <v>153</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E154" s="12" t="s">
         <v>619</v>
@@ -8824,7 +8820,7 @@
         <v>2</v>
       </c>
       <c r="I154" s="12" t="s">
-        <v>800</v>
+        <v>876</v>
       </c>
       <c r="J154" s="4"/>
       <c r="K154" s="4"/>
@@ -8883,7 +8879,7 @@
         <v>156</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E157" s="12" t="s">
         <v>619</v>
@@ -8895,7 +8891,7 @@
         <v>56</v>
       </c>
       <c r="H157" s="12" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="I157" s="12"/>
       <c r="J157" s="4"/>
@@ -8909,7 +8905,7 @@
         <v>157</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E158" s="12" t="s">
         <v>619</v>
@@ -8955,7 +8951,7 @@
         <v>159</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E160" s="12" t="s">
         <v>619</v>
@@ -8979,7 +8975,7 @@
         <v>160</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E161" s="12" t="s">
         <v>616</v>
@@ -9025,7 +9021,7 @@
         <v>162</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>19</v>
@@ -9049,7 +9045,7 @@
         <v>163</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>19</v>
@@ -9073,7 +9069,7 @@
         <v>164</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E165" s="12" t="s">
         <v>235</v>
@@ -9085,7 +9081,7 @@
         <v>56</v>
       </c>
       <c r="H165" s="12" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="I165" s="12"/>
       <c r="J165" s="4"/>
@@ -9099,7 +9095,7 @@
         <v>165</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E166" s="12" t="s">
         <v>235</v>
@@ -9123,7 +9119,7 @@
         <v>166</v>
       </c>
       <c r="D167" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E167" s="12" t="s">
         <v>272</v>
@@ -9147,7 +9143,7 @@
         <v>167</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E168" s="12" t="s">
         <v>272</v>
@@ -9193,7 +9189,7 @@
         <v>169</v>
       </c>
       <c r="D170" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E170" s="12" t="s">
         <v>235</v>
@@ -9217,7 +9213,7 @@
         <v>170</v>
       </c>
       <c r="D171" s="13" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="E171" s="12"/>
       <c r="F171" s="4"/>
@@ -9235,7 +9231,7 @@
         <v>171</v>
       </c>
       <c r="D172" s="13" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E172" s="12"/>
       <c r="F172" s="4"/>
@@ -9253,7 +9249,7 @@
         <v>172</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E173" s="12" t="s">
         <v>19</v>
@@ -9276,7 +9272,7 @@
         <v>173</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E174" s="12" t="s">
         <v>19</v>
@@ -9312,7 +9308,7 @@
         <v>799</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="J175" s="4" t="s">
         <v>797</v>
@@ -9326,7 +9322,7 @@
         <v>175</v>
       </c>
       <c r="D176" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E176" s="12" t="s">
         <v>19</v>
@@ -9349,7 +9345,7 @@
         <v>176</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E177" s="12" t="s">
         <v>19</v>
@@ -9372,7 +9368,7 @@
         <v>177</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E178" s="12" t="s">
         <v>616</v>
@@ -9384,7 +9380,7 @@
         <v>794</v>
       </c>
       <c r="H178" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
@@ -9397,7 +9393,7 @@
         <v>178</v>
       </c>
       <c r="D179" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E179" s="12" t="s">
         <v>616</v>
@@ -9409,7 +9405,7 @@
         <v>56</v>
       </c>
       <c r="H179" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
@@ -9422,7 +9418,7 @@
         <v>179</v>
       </c>
       <c r="D180" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E180" s="12" t="s">
         <v>616</v>
@@ -9445,7 +9441,7 @@
         <v>180</v>
       </c>
       <c r="D181" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E181" s="12" t="s">
         <v>619</v>
@@ -9457,13 +9453,13 @@
         <v>7</v>
       </c>
       <c r="H181" s="12" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="J181" s="12" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="K181" s="4"/>
       <c r="L181" s="4"/>
@@ -9474,7 +9470,7 @@
         <v>181</v>
       </c>
       <c r="D182" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E182" s="12" t="s">
         <v>619</v>
@@ -9486,13 +9482,13 @@
         <v>7</v>
       </c>
       <c r="H182" s="12" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="J182" s="12" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="K182" s="4"/>
       <c r="L182" s="4"/>
@@ -9518,7 +9514,7 @@
         <v>2</v>
       </c>
       <c r="I183" s="12" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="J183" s="4"/>
       <c r="K183" s="4"/>
@@ -9574,7 +9570,7 @@
         <v>185</v>
       </c>
       <c r="D186" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E186" s="12" t="s">
         <v>616</v>
@@ -9618,7 +9614,7 @@
         <v>187</v>
       </c>
       <c r="D188" s="13" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
@@ -9635,7 +9631,7 @@
         <v>188</v>
       </c>
       <c r="D189" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E189" s="12" t="s">
         <v>19</v>
@@ -9658,7 +9654,7 @@
         <v>189</v>
       </c>
       <c r="D190" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E190" s="12" t="s">
         <v>19</v>
@@ -9691,10 +9687,10 @@
       </c>
       <c r="G191" s="4"/>
       <c r="H191" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="J191" s="4" t="s">
         <v>797</v>
@@ -9708,7 +9704,7 @@
         <v>191</v>
       </c>
       <c r="D192" s="13" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="E192" s="12"/>
       <c r="F192" s="4"/>
@@ -9725,7 +9721,7 @@
         <v>192</v>
       </c>
       <c r="D193" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E193" s="12" t="s">
         <v>19</v>
@@ -9748,7 +9744,7 @@
         <v>193</v>
       </c>
       <c r="D194" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E194" s="12" t="s">
         <v>19</v>
@@ -9771,7 +9767,7 @@
         <v>194</v>
       </c>
       <c r="D195" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E195" s="12" t="s">
         <v>616</v>
@@ -9783,7 +9779,7 @@
         <v>56</v>
       </c>
       <c r="H195" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
@@ -9796,7 +9792,7 @@
         <v>195</v>
       </c>
       <c r="D196" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E196" s="12" t="s">
         <v>616</v>
@@ -9822,7 +9818,7 @@
         <v>798</v>
       </c>
       <c r="E197" s="12" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="F197" s="4" t="s">
         <v>17</v>
@@ -9863,7 +9859,7 @@
         <v>198</v>
       </c>
       <c r="D199" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E199" s="12" t="s">
         <v>614</v>
@@ -9886,7 +9882,7 @@
         <v>199</v>
       </c>
       <c r="D200" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E200" s="12" t="s">
         <v>616</v>
@@ -9909,7 +9905,7 @@
         <v>200</v>
       </c>
       <c r="D201" s="13" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="E201" s="12"/>
       <c r="F201" s="4"/>
@@ -9926,7 +9922,7 @@
         <v>201</v>
       </c>
       <c r="D202" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E202" s="12" t="s">
         <v>19</v>
@@ -9949,7 +9945,7 @@
         <v>202</v>
       </c>
       <c r="D203" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E203" s="12" t="s">
         <v>19</v>
@@ -9985,7 +9981,7 @@
         <v>799</v>
       </c>
       <c r="I204" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="J204" s="4" t="s">
         <v>797</v>
@@ -9999,7 +9995,7 @@
         <v>204</v>
       </c>
       <c r="D205" s="13" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="E205" s="12"/>
       <c r="F205" s="4"/>
@@ -10016,7 +10012,7 @@
         <v>205</v>
       </c>
       <c r="D206" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E206" s="12" t="s">
         <v>19</v>
@@ -10039,7 +10035,7 @@
         <v>206</v>
       </c>
       <c r="D207" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E207" s="12" t="s">
         <v>19</v>
@@ -10062,7 +10058,7 @@
         <v>207</v>
       </c>
       <c r="D208" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E208" s="12" t="s">
         <v>616</v>
@@ -10074,7 +10070,7 @@
         <v>56</v>
       </c>
       <c r="H208" s="12" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
@@ -10087,7 +10083,7 @@
         <v>208</v>
       </c>
       <c r="D209" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E209" s="12" t="s">
         <v>616</v>
@@ -10131,7 +10127,7 @@
         <v>210</v>
       </c>
       <c r="D211" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E211" s="12" t="s">
         <v>616</v>
@@ -10140,10 +10136,10 @@
         <v>617</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="H211" s="12" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="I211" s="12"/>
       <c r="J211" s="4"/>
@@ -10177,7 +10173,7 @@
         <v>212</v>
       </c>
       <c r="D213" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E213" s="12" t="s">
         <v>616</v>
@@ -10221,7 +10217,7 @@
         <v>214</v>
       </c>
       <c r="D215" s="13" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
@@ -10238,7 +10234,7 @@
         <v>215</v>
       </c>
       <c r="D216" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E216" s="12" t="s">
         <v>19</v>
@@ -10261,7 +10257,7 @@
         <v>216</v>
       </c>
       <c r="D217" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E217" s="12" t="s">
         <v>19</v>
@@ -10294,13 +10290,13 @@
       </c>
       <c r="G218" s="4"/>
       <c r="H218" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I218" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="J218" s="4" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="K218" s="4"/>
       <c r="L218" s="4"/>
@@ -10311,7 +10307,7 @@
         <v>218</v>
       </c>
       <c r="D219" s="13" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="E219" s="12"/>
       <c r="F219" s="4"/>
@@ -10328,7 +10324,7 @@
         <v>219</v>
       </c>
       <c r="D220" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E220" s="12" t="s">
         <v>19</v>
@@ -10351,7 +10347,7 @@
         <v>220</v>
       </c>
       <c r="D221" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E221" s="12" t="s">
         <v>19</v>
@@ -10374,7 +10370,7 @@
         <v>221</v>
       </c>
       <c r="D222" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E222" s="12" t="s">
         <v>616</v>
@@ -10386,7 +10382,7 @@
         <v>56</v>
       </c>
       <c r="H222" s="12" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
@@ -10399,7 +10395,7 @@
         <v>222</v>
       </c>
       <c r="D223" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E223" s="12" t="s">
         <v>616</v>
@@ -10443,7 +10439,7 @@
         <v>224</v>
       </c>
       <c r="D225" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E225" s="12" t="s">
         <v>616</v>
@@ -10452,10 +10448,10 @@
         <v>617</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="H225" s="12" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="I225" s="12"/>
       <c r="J225" s="4"/>
@@ -10489,7 +10485,7 @@
         <v>226</v>
       </c>
       <c r="D227" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E227" s="12" t="s">
         <v>616</v>
@@ -10512,7 +10508,7 @@
         <v>227</v>
       </c>
       <c r="D228" s="13" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="E228" s="12"/>
       <c r="F228" s="4"/>
@@ -10529,7 +10525,7 @@
         <v>228</v>
       </c>
       <c r="D229" s="13" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="E229" s="12"/>
       <c r="F229" s="4"/>
@@ -10546,7 +10542,7 @@
         <v>229</v>
       </c>
       <c r="D230" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E230" s="12" t="s">
         <v>19</v>
@@ -10569,7 +10565,7 @@
         <v>230</v>
       </c>
       <c r="D231" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E231" s="12" t="s">
         <v>19</v>
@@ -10602,13 +10598,13 @@
       </c>
       <c r="G232" s="4"/>
       <c r="H232" s="4" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="I232" s="4" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="J232" s="4" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="K232" s="4"/>
       <c r="L232" s="4"/>
@@ -10619,17 +10615,17 @@
         <v>232</v>
       </c>
       <c r="D233" s="14" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="E233" s="4" t="s">
         <v>572</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="G233" s="4"/>
       <c r="H233" s="4" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="I233" s="12"/>
       <c r="J233" s="4"/>
@@ -10642,7 +10638,7 @@
         <v>233</v>
       </c>
       <c r="D234" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E234" s="4" t="s">
         <v>19</v>
@@ -10665,7 +10661,7 @@
         <v>234</v>
       </c>
       <c r="D235" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E235" s="4" t="s">
         <v>19</v>
@@ -10688,7 +10684,7 @@
         <v>235</v>
       </c>
       <c r="D236" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E236" s="12" t="s">
         <v>235</v>
@@ -10700,7 +10696,7 @@
         <v>56</v>
       </c>
       <c r="H236" s="12" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="I236" s="12"/>
       <c r="J236" s="4"/>
@@ -10713,7 +10709,7 @@
         <v>236</v>
       </c>
       <c r="D237" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E237" s="12" t="s">
         <v>235</v>
@@ -10736,7 +10732,7 @@
         <v>237</v>
       </c>
       <c r="D238" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E238" s="12" t="s">
         <v>235</v>
@@ -10748,7 +10744,7 @@
         <v>56</v>
       </c>
       <c r="H238" s="12" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="I238" s="12"/>
       <c r="J238" s="4"/>
@@ -10761,7 +10757,7 @@
         <v>238</v>
       </c>
       <c r="D239" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E239" s="12" t="s">
         <v>235</v>
@@ -10784,7 +10780,7 @@
         <v>239</v>
       </c>
       <c r="D240" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E240" s="12" t="s">
         <v>235</v>
@@ -10796,7 +10792,7 @@
         <v>56</v>
       </c>
       <c r="H240" s="12" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="I240" s="12"/>
       <c r="J240" s="4"/>
@@ -10809,7 +10805,7 @@
         <v>240</v>
       </c>
       <c r="D241" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E241" s="12" t="s">
         <v>235</v>
@@ -10832,13 +10828,13 @@
         <v>241</v>
       </c>
       <c r="D242" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E242" s="12" t="s">
         <v>272</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="G242" s="4" t="s">
         <v>137</v>
@@ -10855,7 +10851,7 @@
         <v>242</v>
       </c>
       <c r="D243" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E243" s="12" t="s">
         <v>272</v>
@@ -10878,7 +10874,7 @@
         <v>243</v>
       </c>
       <c r="D244" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E244" s="12" t="s">
         <v>235</v>
@@ -10959,7 +10955,7 @@
         <v>56</v>
       </c>
       <c r="H247" s="12" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="I247" s="12"/>
       <c r="J247" s="4"/>

--- a/NformTester/NformTester/keywordscripts/TST970_EditDeleteNavigationView.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST970_EditDeleteNavigationView.xlsx
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8060" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8061" uniqueCount="878">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3900,14 +3900,20 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-  </si>
-  <si>
-    <t>$GXT_1$</t>
+    <t>Running Range</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_0_NAME$</t>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_1$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4876,14 +4882,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D232" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I154" sqref="I154"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="40.375" customWidth="1"/>
     <col min="5" max="5" width="27.75" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="18.875" customWidth="1"/>
@@ -5057,7 +5063,7 @@
         <v>758</v>
       </c>
       <c r="B6" s="6">
-        <v>41061</v>
+        <v>41449</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -5116,9 +5122,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>874</v>
+      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
@@ -5147,11 +5153,9 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>762</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
@@ -5179,8 +5183,12 @@
       <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>762</v>
+      </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -5208,10 +5216,8 @@
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="B11" s="10"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
@@ -5240,7 +5246,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="4">
@@ -5271,7 +5277,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="4">
@@ -5302,7 +5308,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="4">
@@ -5333,7 +5339,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="4">
@@ -5364,7 +5370,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="4">
@@ -5394,10 +5400,10 @@
       <c r="O16" s="11"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="10" t="s">
-        <v>769</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B17" s="10"/>
       <c r="C17" s="4">
         <v>16</v>
       </c>
@@ -5427,7 +5433,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="2"/>
       <c r="B18" s="10" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -5460,11 +5466,9 @@
       <c r="O18" s="11"/>
     </row>
     <row r="19" spans="1:15" ht="14.25">
-      <c r="A19" s="2" t="s">
-        <v>771</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="10" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -5494,9 +5498,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="B20" s="10"/>
+        <v>771</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>762</v>
+      </c>
       <c r="C20" s="4">
         <v>19</v>
       </c>
@@ -5525,7 +5531,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="4">
@@ -5553,6 +5559,10 @@
       <c r="O21" s="11"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B22" s="10"/>
       <c r="C22" s="4">
         <v>21</v>
       </c>
@@ -6527,7 +6537,7 @@
         <v>4</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -7237,7 +7247,7 @@
         <v>4</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
